--- a/results/exclude-id.xlsx
+++ b/results/exclude-id.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -568,13 +568,13 @@
         <v>128</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7815468113975577</v>
+        <v>0.7762803234501348</v>
       </c>
       <c r="P2" t="n">
         <v>0.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.726730444312635</v>
+        <v>0.7359792600929468</v>
       </c>
     </row>
     <row r="3">
@@ -610,7 +610,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -625,13 +625,13 @@
         <v>128</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7939560439560439</v>
+        <v>0.7977369165487977</v>
       </c>
       <c r="P3" t="n">
-        <v>0.903125</v>
+        <v>0.88125</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7185098728443163</v>
+        <v>0.7251500514298003</v>
       </c>
     </row>
     <row r="4">
@@ -667,7 +667,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -682,13 +682,13 @@
         <v>128</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7980364656381487</v>
+        <v>0.7844712182061579</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8890625</v>
+        <v>0.915625</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7198523806231054</v>
+        <v>0.7212140365963069</v>
       </c>
     </row>
     <row r="5">
@@ -724,7 +724,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -739,13 +739,13 @@
         <v>128</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8023255813953488</v>
+        <v>0.7787958115183246</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8625</v>
+        <v>0.9296875</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7334628755150877</v>
+        <v>0.7205802765906666</v>
       </c>
     </row>
     <row r="6">
@@ -781,7 +781,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -796,13 +796,13 @@
         <v>128</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7848605577689243</v>
+        <v>0.7932960893854749</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9234375</v>
+        <v>0.8875</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7178787351733419</v>
+        <v>0.7255397298756767</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +838,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -853,13 +853,13 @@
         <v>128</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7903871829105474</v>
+        <v>0.807909604519774</v>
       </c>
       <c r="P7" t="n">
-        <v>0.925</v>
+        <v>0.89375</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7147950616357553</v>
+        <v>0.718439846017242</v>
       </c>
     </row>
     <row r="8">
@@ -895,7 +895,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -910,13 +910,13 @@
         <v>128</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7980085348506402</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8765625</v>
+        <v>0.8984375</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7262387871742249</v>
+        <v>0.7213251350691955</v>
       </c>
     </row>
     <row r="9">
@@ -952,7 +952,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -967,13 +967,13 @@
         <v>128</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7963988919667589</v>
+        <v>0.7942386831275721</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8984375</v>
+        <v>0.9046875</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7193405323438515</v>
+        <v>0.7203116578753718</v>
       </c>
     </row>
     <row r="10">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1024,13 +1024,13 @@
         <v>128</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7980900409276944</v>
+        <v>0.7927321668909825</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9140625</v>
+        <v>0.9203125</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7138634909332068</v>
+        <v>0.7140969572024108</v>
       </c>
     </row>
     <row r="11">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1081,13 +1081,13 @@
         <v>128</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8057553956834532</v>
+        <v>0.8011283497884344</v>
       </c>
       <c r="P11" t="n">
-        <v>0.875</v>
+        <v>0.8875</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7198978818919324</v>
+        <v>0.7195025380380553</v>
       </c>
     </row>
     <row r="12">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1138,13 +1138,13 @@
         <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8005540166204986</v>
+        <v>0.7838926174496644</v>
       </c>
       <c r="P12" t="n">
-        <v>0.903125</v>
+        <v>0.9125</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7169932232183569</v>
+        <v>0.7231321067831635</v>
       </c>
     </row>
     <row r="13">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1195,13 +1195,13 @@
         <v>128</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7845303867403315</v>
+        <v>0.7965860597439545</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8875</v>
+        <v>0.875</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.730039720891288</v>
+        <v>0.7278372394553138</v>
       </c>
     </row>
     <row r="14">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1252,13 +1252,13 @@
         <v>128</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8075253256150506</v>
+        <v>0.7894021739130435</v>
       </c>
       <c r="P14" t="n">
-        <v>0.871875</v>
+        <v>0.9078125</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7203040713638202</v>
+        <v>0.7190038122203015</v>
       </c>
     </row>
     <row r="15">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1309,13 +1309,13 @@
         <v>128</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8014285714285714</v>
+        <v>0.8185840707964602</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8765625</v>
+        <v>0.8671875</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7240199994177839</v>
+        <v>0.7188166193832639</v>
       </c>
     </row>
     <row r="16">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1366,13 +1366,13 @@
         <v>128</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7896174863387978</v>
+        <v>0.7921195652173914</v>
       </c>
       <c r="P16" t="n">
-        <v>0.903125</v>
+        <v>0.9109375</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7218019789700055</v>
+        <v>0.7159653815748465</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1423,13 +1423,13 @@
         <v>128</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7958904109589041</v>
+        <v>0.785809906291834</v>
       </c>
       <c r="P17" t="n">
-        <v>0.9078125</v>
+        <v>0.9171875</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7161987318712122</v>
+        <v>0.7192633356983306</v>
       </c>
     </row>
     <row r="18">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1480,13 +1480,13 @@
         <v>128</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7871759890859482</v>
+        <v>0.786774628879892</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9015625</v>
+        <v>0.9109375</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7221780508352081</v>
+        <v>0.7188806032163525</v>
       </c>
     </row>
     <row r="19">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1537,13 +1537,13 @@
         <v>128</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7963224893917963</v>
+        <v>0.7840440165061898</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8796875</v>
+        <v>0.890625</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7230682149192327</v>
+        <v>0.7318033171455245</v>
       </c>
     </row>
     <row r="20">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1594,13 +1594,13 @@
         <v>128</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7882513661202186</v>
+        <v>0.7810810810810811</v>
       </c>
       <c r="P20" t="n">
-        <v>0.9015625</v>
+        <v>0.903125</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.722124968448915</v>
+        <v>0.7272292505022627</v>
       </c>
     </row>
     <row r="21">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1651,13 +1651,13 @@
         <v>128</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7907949790794979</v>
+        <v>0.788218793828892</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8859375</v>
+        <v>0.878125</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7295505097009477</v>
+        <v>0.7299000823120186</v>
       </c>
     </row>
     <row r="22">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1708,13 +1708,13 @@
         <v>128</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7806539509536785</v>
+        <v>0.7829036635006784</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8953125</v>
+        <v>0.9015625</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7277869865365697</v>
+        <v>0.7243451654101929</v>
       </c>
     </row>
     <row r="23">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1765,13 +1765,13 @@
         <v>128</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7952973720608575</v>
+        <v>0.7758152173913043</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8984375</v>
+        <v>0.8921875</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7237799974048839</v>
+        <v>0.7318783073403716</v>
       </c>
     </row>
     <row r="24">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1822,13 +1822,13 @@
         <v>128</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7895460797799174</v>
+        <v>0.7824324324324324</v>
       </c>
       <c r="P24" t="n">
-        <v>0.896875</v>
+        <v>0.9046875</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7221530692070318</v>
+        <v>0.7253676957674156</v>
       </c>
     </row>
     <row r="25">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1879,13 +1879,13 @@
         <v>128</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8032305433186491</v>
+        <v>0.7862266857962698</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8546875</v>
+        <v>0.85625</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7295388350119958</v>
+        <v>0.7363564790104309</v>
       </c>
     </row>
     <row r="26">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1936,13 +1936,13 @@
         <v>128</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8096676737160121</v>
+        <v>0.7913279132791328</v>
       </c>
       <c r="P26" t="n">
-        <v>0.8375</v>
+        <v>0.9125</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7322291281428273</v>
+        <v>0.7152885255231037</v>
       </c>
     </row>
     <row r="27">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1993,13 +1993,13 @@
         <v>128</v>
       </c>
       <c r="O27" t="n">
-        <v>0.7903448275862069</v>
+        <v>0.8094555873925502</v>
       </c>
       <c r="P27" t="n">
-        <v>0.8953125</v>
+        <v>0.8828125</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.721678012366748</v>
+        <v>0.7143596443115856</v>
       </c>
     </row>
     <row r="28">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2050,13 +2050,13 @@
         <v>128</v>
       </c>
       <c r="O28" t="n">
-        <v>0.7947295423023578</v>
+        <v>0.7818428184281843</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8953125</v>
+        <v>0.9015625</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7191638601311731</v>
+        <v>0.7237486483284791</v>
       </c>
     </row>
     <row r="29">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2107,13 +2107,13 @@
         <v>128</v>
       </c>
       <c r="O29" t="n">
-        <v>0.7963988919667589</v>
+        <v>0.7709137709137709</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8984375</v>
+        <v>0.9359375</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7189850200355322</v>
+        <v>0.7218183815748983</v>
       </c>
     </row>
     <row r="30">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2164,13 +2164,13 @@
         <v>128</v>
       </c>
       <c r="O30" t="n">
-        <v>0.8008658008658008</v>
+        <v>0.7936288088642659</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8671875</v>
+        <v>0.8953125</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7267343755221475</v>
+        <v>0.7239939459848188</v>
       </c>
     </row>
     <row r="31">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2221,13 +2221,13 @@
         <v>128</v>
       </c>
       <c r="O31" t="n">
-        <v>0.808446455505279</v>
+        <v>0.7809139784946236</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8375</v>
+        <v>0.9078125</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.735626366882842</v>
+        <v>0.7279513467490942</v>
       </c>
     </row>
     <row r="32">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2278,13 +2278,13 @@
         <v>128</v>
       </c>
       <c r="O32" t="n">
-        <v>0.7933884297520661</v>
+        <v>0.7921727395411606</v>
       </c>
       <c r="P32" t="n">
-        <v>0.9</v>
+        <v>0.9171875</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.7219088697864998</v>
+        <v>0.7166227552685802</v>
       </c>
     </row>
     <row r="33">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2335,13 +2335,13 @@
         <v>128</v>
       </c>
       <c r="O33" t="n">
-        <v>0.7822045152722443</v>
+        <v>0.7891246684350133</v>
       </c>
       <c r="P33" t="n">
-        <v>0.9203125</v>
+        <v>0.9296875</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7217572792622838</v>
+        <v>0.7126715237198912</v>
       </c>
     </row>
     <row r="34">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2392,13 +2392,13 @@
         <v>128</v>
       </c>
       <c r="O34" t="n">
-        <v>0.8084179970972424</v>
+        <v>0.8051359516616314</v>
       </c>
       <c r="P34" t="n">
-        <v>0.8703125</v>
+        <v>0.8328125</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7254997629385728</v>
+        <v>0.7342381377565376</v>
       </c>
     </row>
     <row r="35">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2449,13 +2449,13 @@
         <v>128</v>
       </c>
       <c r="O35" t="n">
-        <v>0.7922971114167813</v>
+        <v>0.816358024691358</v>
       </c>
       <c r="P35" t="n">
-        <v>0.9</v>
+        <v>0.8265625</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7208117996405692</v>
+        <v>0.735650673441218</v>
       </c>
     </row>
     <row r="36">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2506,13 +2506,13 @@
         <v>128</v>
       </c>
       <c r="O36" t="n">
-        <v>0.7983310152990264</v>
+        <v>0.8020231213872833</v>
       </c>
       <c r="P36" t="n">
-        <v>0.896875</v>
+        <v>0.8671875</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7178930243755358</v>
+        <v>0.7278608779562005</v>
       </c>
     </row>
     <row r="37">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2563,13 +2563,13 @@
         <v>128</v>
       </c>
       <c r="O37" t="n">
-        <v>0.7994389901823282</v>
+        <v>0.801994301994302</v>
       </c>
       <c r="P37" t="n">
-        <v>0.890625</v>
+        <v>0.8796875</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.7208157804756682</v>
+        <v>0.722585978281444</v>
       </c>
     </row>
     <row r="38">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2620,13 +2620,13 @@
         <v>128</v>
       </c>
       <c r="O38" t="n">
-        <v>0.7792553191489362</v>
+        <v>0.7837116154873164</v>
       </c>
       <c r="P38" t="n">
-        <v>0.915625</v>
+        <v>0.9171875</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.7196760258523587</v>
+        <v>0.7201201554337239</v>
       </c>
     </row>
     <row r="39">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2677,13 +2677,13 @@
         <v>128</v>
       </c>
       <c r="O39" t="n">
-        <v>0.7963988919667589</v>
+        <v>0.8056338028169014</v>
       </c>
       <c r="P39" t="n">
-        <v>0.8984375</v>
+        <v>0.89375</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7199545451418846</v>
+        <v>0.7159882457547597</v>
       </c>
     </row>
     <row r="40">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2734,13 +2734,13 @@
         <v>128</v>
       </c>
       <c r="O40" t="n">
-        <v>0.8005952380952381</v>
+        <v>0.808868501529052</v>
       </c>
       <c r="P40" t="n">
-        <v>0.840625</v>
+        <v>0.8265625</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.7334533857004675</v>
+        <v>0.7345387905970957</v>
       </c>
     </row>
     <row r="41">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2791,13 +2791,13 @@
         <v>128</v>
       </c>
       <c r="O41" t="n">
-        <v>0.7962962962962963</v>
+        <v>0.7953890489913544</v>
       </c>
       <c r="P41" t="n">
-        <v>0.8734375</v>
+        <v>0.8625</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.7271858548147107</v>
+        <v>0.7271451440332163</v>
       </c>
     </row>
     <row r="42">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2848,13 +2848,13 @@
         <v>128</v>
       </c>
       <c r="O42" t="n">
-        <v>0.7878378378378378</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="P42" t="n">
-        <v>0.9109375</v>
+        <v>0.928125</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7196238000468431</v>
+        <v>0.7140310412078961</v>
       </c>
     </row>
     <row r="43">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2905,13 +2905,13 @@
         <v>128</v>
       </c>
       <c r="O43" t="n">
-        <v>0.803072625698324</v>
+        <v>0.8098693759071117</v>
       </c>
       <c r="P43" t="n">
-        <v>0.8984375</v>
+        <v>0.871875</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7166762357383831</v>
+        <v>0.720748270259184</v>
       </c>
     </row>
     <row r="44">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2962,13 +2962,13 @@
         <v>128</v>
       </c>
       <c r="O44" t="n">
-        <v>0.8065476190476191</v>
+        <v>0.7919556171983356</v>
       </c>
       <c r="P44" t="n">
-        <v>0.846875</v>
+        <v>0.8921875</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.7299159811093257</v>
+        <v>0.7258354546797222</v>
       </c>
     </row>
     <row r="45">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3019,13 +3019,13 @@
         <v>128</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8078034682080925</v>
+        <v>0.8031383737517832</v>
       </c>
       <c r="P45" t="n">
-        <v>0.8734375</v>
+        <v>0.8796875</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7205296806080849</v>
+        <v>0.7204854642104239</v>
       </c>
     </row>
     <row r="46">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3076,13 +3076,13 @@
         <v>128</v>
       </c>
       <c r="O46" t="n">
-        <v>0.7902777777777777</v>
+        <v>0.786096256684492</v>
       </c>
       <c r="P46" t="n">
-        <v>0.8890625</v>
+        <v>0.91875</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.7230749890815079</v>
+        <v>0.7216982110593114</v>
       </c>
     </row>
     <row r="47">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3133,13 +3133,13 @@
         <v>128</v>
       </c>
       <c r="O47" t="n">
-        <v>0.8014084507042254</v>
+        <v>0.8110014104372355</v>
       </c>
       <c r="P47" t="n">
-        <v>0.8890625</v>
+        <v>0.8984375</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.7221235039547018</v>
+        <v>0.7113487353691688</v>
       </c>
     </row>
     <row r="48">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3190,13 +3190,13 @@
         <v>128</v>
       </c>
       <c r="O48" t="n">
-        <v>0.8082386363636364</v>
+        <v>0.8014084507042254</v>
       </c>
       <c r="P48" t="n">
         <v>0.8890625</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.7152758356672606</v>
+        <v>0.7191436635962439</v>
       </c>
     </row>
     <row r="49">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3247,13 +3247,13 @@
         <v>128</v>
       </c>
       <c r="O49" t="n">
-        <v>0.7887517146776406</v>
+        <v>0.7848605577689243</v>
       </c>
       <c r="P49" t="n">
-        <v>0.8984375</v>
+        <v>0.9234375</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.7238282884947315</v>
+        <v>0.7175215099731721</v>
       </c>
     </row>
     <row r="50">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3304,13 +3304,13 @@
         <v>128</v>
       </c>
       <c r="O50" t="n">
-        <v>0.8013698630136986</v>
+        <v>0.7982954545454546</v>
       </c>
       <c r="P50" t="n">
-        <v>0.9140625</v>
+        <v>0.878125</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.7115059022989748</v>
+        <v>0.7247284130273361</v>
       </c>
     </row>
     <row r="51">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3361,13 +3361,13 @@
         <v>128</v>
       </c>
       <c r="O51" t="n">
-        <v>0.7899045020463847</v>
+        <v>0.7785234899328859</v>
       </c>
       <c r="P51" t="n">
-        <v>0.9046875</v>
+        <v>0.90625</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.723444884718813</v>
+        <v>0.7282574230729185</v>
       </c>
     </row>
     <row r="52">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3418,13 +3418,13 @@
         <v>128</v>
       </c>
       <c r="O52" t="n">
-        <v>0.8065902578796562</v>
+        <v>0.7871148459383753</v>
       </c>
       <c r="P52" t="n">
-        <v>0.8796875</v>
+        <v>0.878125</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.7202454719068777</v>
+        <v>0.7294857251158667</v>
       </c>
     </row>
     <row r="53">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3475,13 +3475,13 @@
         <v>128</v>
       </c>
       <c r="O53" t="n">
-        <v>0.8093158660844251</v>
+        <v>0.8094512195121951</v>
       </c>
       <c r="P53" t="n">
-        <v>0.86875</v>
+        <v>0.8296875</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.7213655731796679</v>
+        <v>0.7343329069840961</v>
       </c>
     </row>
     <row r="54">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3532,13 +3532,13 @@
         <v>128</v>
       </c>
       <c r="O54" t="n">
-        <v>0.8045325779036827</v>
+        <v>0.7871759890859482</v>
       </c>
       <c r="P54" t="n">
-        <v>0.8875</v>
+        <v>0.9015625</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.7160108647734871</v>
+        <v>0.7229355719294484</v>
       </c>
     </row>
     <row r="55">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3589,13 +3589,13 @@
         <v>128</v>
       </c>
       <c r="O55" t="n">
-        <v>0.8014184397163121</v>
+        <v>0.8092566619915849</v>
       </c>
       <c r="P55" t="n">
-        <v>0.8828125</v>
+        <v>0.9015625</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.7192816089720747</v>
+        <v>0.711392993301288</v>
       </c>
     </row>
     <row r="56">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3646,13 +3646,13 @@
         <v>128</v>
       </c>
       <c r="O56" t="n">
-        <v>0.786908077994429</v>
+        <v>0.7913279132791328</v>
       </c>
       <c r="P56" t="n">
-        <v>0.8828125</v>
+        <v>0.9125</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.7275105849650111</v>
+        <v>0.7180896253067983</v>
       </c>
     </row>
     <row r="57">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3703,13 +3703,13 @@
         <v>128</v>
       </c>
       <c r="O57" t="n">
-        <v>0.7955493741307371</v>
+        <v>0.809322033898305</v>
       </c>
       <c r="P57" t="n">
-        <v>0.89375</v>
+        <v>0.8953125</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.7201406176273639</v>
+        <v>0.7156996411435744</v>
       </c>
     </row>
     <row r="58">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3760,13 +3760,13 @@
         <v>128</v>
       </c>
       <c r="O58" t="n">
-        <v>0.7977369165487977</v>
+        <v>0.7927170868347339</v>
       </c>
       <c r="P58" t="n">
-        <v>0.88125</v>
+        <v>0.884375</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.7236535479040707</v>
+        <v>0.7228469681416162</v>
       </c>
     </row>
     <row r="59">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3817,13 +3817,13 @@
         <v>128</v>
       </c>
       <c r="O59" t="n">
-        <v>0.7943661971830986</v>
+        <v>0.7774762550881954</v>
       </c>
       <c r="P59" t="n">
-        <v>0.88125</v>
+        <v>0.8953125</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.7293576522650222</v>
+        <v>0.7302733168882483</v>
       </c>
     </row>
     <row r="60">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3874,13 +3874,13 @@
         <v>128</v>
       </c>
       <c r="O60" t="n">
-        <v>0.7914951989026063</v>
+        <v>0.7870619946091644</v>
       </c>
       <c r="P60" t="n">
-        <v>0.9015625</v>
+        <v>0.9125</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.7203886905406934</v>
+        <v>0.7208491299486808</v>
       </c>
     </row>
     <row r="61">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3931,13 +3931,13 @@
         <v>128</v>
       </c>
       <c r="O61" t="n">
-        <v>0.8045325779036827</v>
+        <v>0.781578947368421</v>
       </c>
       <c r="P61" t="n">
-        <v>0.8875</v>
+        <v>0.928125</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.7184090231338777</v>
+        <v>0.7216394589497492</v>
       </c>
     </row>
     <row r="62">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3988,13 +3988,13 @@
         <v>128</v>
       </c>
       <c r="O62" t="n">
-        <v>0.8037790697674418</v>
+        <v>0.7953296703296703</v>
       </c>
       <c r="P62" t="n">
-        <v>0.8640625</v>
+        <v>0.9046875</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.7222279846937948</v>
+        <v>0.7162881412657138</v>
       </c>
     </row>
     <row r="63">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4045,13 +4045,13 @@
         <v>128</v>
       </c>
       <c r="O63" t="n">
-        <v>0.8011363636363636</v>
+        <v>0.7866666666666666</v>
       </c>
       <c r="P63" t="n">
-        <v>0.88125</v>
+        <v>0.921875</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.7215127205956575</v>
+        <v>0.7196143563516539</v>
       </c>
     </row>
     <row r="64">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4102,13 +4102,13 @@
         <v>128</v>
       </c>
       <c r="O64" t="n">
-        <v>0.7958041958041958</v>
+        <v>0.7977044476327116</v>
       </c>
       <c r="P64" t="n">
-        <v>0.8890625</v>
+        <v>0.86875</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.7227856276801269</v>
+        <v>0.7257159875528845</v>
       </c>
     </row>
     <row r="65">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4159,13 +4159,13 @@
         <v>128</v>
       </c>
       <c r="O65" t="n">
-        <v>0.7734877734877735</v>
+        <v>0.8107714701601164</v>
       </c>
       <c r="P65" t="n">
-        <v>0.9390625</v>
+        <v>0.8703125</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.7198911104267</v>
+        <v>0.7201930362714362</v>
       </c>
     </row>
     <row r="66">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4216,13 +4216,13 @@
         <v>128</v>
       </c>
       <c r="O66" t="n">
-        <v>0.7881705639614855</v>
+        <v>0.7802197802197802</v>
       </c>
       <c r="P66" t="n">
-        <v>0.8953125</v>
+        <v>0.8875</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.7272133312074307</v>
+        <v>0.7320223577421715</v>
       </c>
     </row>
     <row r="67">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4273,13 +4273,13 @@
         <v>128</v>
       </c>
       <c r="O67" t="n">
-        <v>0.8130699088145896</v>
+        <v>0.7724317295188556</v>
       </c>
       <c r="P67" t="n">
-        <v>0.8359375</v>
+        <v>0.928125</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.7280581431690923</v>
+        <v>0.7241331530372481</v>
       </c>
     </row>
     <row r="68">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4330,13 +4330,13 @@
         <v>128</v>
       </c>
       <c r="O68" t="n">
-        <v>0.7848443843031123</v>
+        <v>0.790436005625879</v>
       </c>
       <c r="P68" t="n">
-        <v>0.90625</v>
+        <v>0.878125</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.7235476485204912</v>
+        <v>0.7280312889841347</v>
       </c>
     </row>
     <row r="69">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4387,13 +4387,13 @@
         <v>128</v>
       </c>
       <c r="O69" t="n">
-        <v>0.7907949790794979</v>
+        <v>0.786774628879892</v>
       </c>
       <c r="P69" t="n">
-        <v>0.8859375</v>
+        <v>0.9109375</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.7232112690334407</v>
+        <v>0.7242225783443019</v>
       </c>
     </row>
     <row r="70">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4444,13 +4444,13 @@
         <v>128</v>
       </c>
       <c r="O70" t="n">
-        <v>0.7988668555240793</v>
+        <v>0.7966804979253111</v>
       </c>
       <c r="P70" t="n">
-        <v>0.88125</v>
+        <v>0.9</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.7234799845725702</v>
+        <v>0.7200083678664125</v>
       </c>
     </row>
     <row r="71">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4501,13 +4501,13 @@
         <v>128</v>
       </c>
       <c r="O71" t="n">
-        <v>0.7899860917941586</v>
+        <v>0.7968970380818053</v>
       </c>
       <c r="P71" t="n">
-        <v>0.8875</v>
+        <v>0.8828125</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.7249718845160299</v>
+        <v>0.7235162902741411</v>
       </c>
     </row>
     <row r="72">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4558,13 +4558,13 @@
         <v>128</v>
       </c>
       <c r="O72" t="n">
-        <v>0.7911646586345381</v>
+        <v>0.7842876165113183</v>
       </c>
       <c r="P72" t="n">
-        <v>0.9234375</v>
+        <v>0.9203125</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.7167171318067145</v>
+        <v>0.7170025048212768</v>
       </c>
     </row>
     <row r="73">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4615,13 +4615,13 @@
         <v>128</v>
       </c>
       <c r="O73" t="n">
-        <v>0.7956104252400549</v>
+        <v>0.7839262187088274</v>
       </c>
       <c r="P73" t="n">
-        <v>0.90625</v>
+        <v>0.9296875</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.7180589216327236</v>
+        <v>0.7177542321282814</v>
       </c>
     </row>
     <row r="74">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4672,13 +4672,13 @@
         <v>128</v>
       </c>
       <c r="O74" t="n">
-        <v>0.8053596614950634</v>
+        <v>0.7752659574468085</v>
       </c>
       <c r="P74" t="n">
-        <v>0.8921875</v>
+        <v>0.9109375</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.7134737952262568</v>
+        <v>0.7275917432966276</v>
       </c>
     </row>
     <row r="75">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4729,13 +4729,13 @@
         <v>128</v>
       </c>
       <c r="O75" t="n">
-        <v>0.8023088023088023</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="P75" t="n">
-        <v>0.86875</v>
+        <v>0.875</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.7262514460140763</v>
+        <v>0.7179041124576897</v>
       </c>
     </row>
     <row r="76">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4786,13 +4786,13 @@
         <v>128</v>
       </c>
       <c r="O76" t="n">
-        <v>0.8017366136034733</v>
+        <v>0.812960235640648</v>
       </c>
       <c r="P76" t="n">
-        <v>0.865625</v>
+        <v>0.8625</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.729064586475424</v>
+        <v>0.7191953063011169</v>
       </c>
     </row>
     <row r="77">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4843,13 +4843,13 @@
         <v>128</v>
       </c>
       <c r="O77" t="n">
-        <v>0.8107714701601164</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="P77" t="n">
-        <v>0.8703125</v>
+        <v>0.896875</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.724731246270745</v>
+        <v>0.7222016701870914</v>
       </c>
     </row>
     <row r="78">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4900,13 +4900,13 @@
         <v>128</v>
       </c>
       <c r="O78" t="n">
-        <v>0.782016348773842</v>
+        <v>0.7908847184986595</v>
       </c>
       <c r="P78" t="n">
-        <v>0.896875</v>
+        <v>0.921875</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.7293696187739998</v>
+        <v>0.7172734961250788</v>
       </c>
     </row>
     <row r="79">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4957,13 +4957,13 @@
         <v>128</v>
       </c>
       <c r="O79" t="n">
-        <v>0.7836734693877551</v>
+        <v>0.7944055944055944</v>
       </c>
       <c r="P79" t="n">
-        <v>0.9</v>
+        <v>0.8875</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.7257638635678528</v>
+        <v>0.724608279461235</v>
       </c>
     </row>
     <row r="80">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5014,13 +5014,13 @@
         <v>128</v>
       </c>
       <c r="O80" t="n">
-        <v>0.7899860917941586</v>
+        <v>0.7955182072829131</v>
       </c>
       <c r="P80" t="n">
         <v>0.8875</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.726447784253375</v>
+        <v>0.7249796819363244</v>
       </c>
     </row>
     <row r="81">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5071,13 +5071,13 @@
         <v>128</v>
       </c>
       <c r="O81" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.7926136363636364</v>
       </c>
       <c r="P81" t="n">
-        <v>0.875</v>
+        <v>0.871875</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.7270648541493653</v>
+        <v>0.7305953793935647</v>
       </c>
     </row>
     <row r="82">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5128,13 +5128,13 @@
         <v>128</v>
       </c>
       <c r="O82" t="n">
-        <v>0.7902777777777777</v>
+        <v>0.8019125683060109</v>
       </c>
       <c r="P82" t="n">
-        <v>0.8890625</v>
+        <v>0.9171875</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.7265108303246994</v>
+        <v>0.7120621943365935</v>
       </c>
     </row>
     <row r="83">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5185,13 +5185,13 @@
         <v>128</v>
       </c>
       <c r="O83" t="n">
-        <v>0.7909604519774012</v>
+        <v>0.8070921985815603</v>
       </c>
       <c r="P83" t="n">
-        <v>0.875</v>
+        <v>0.8890625</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.7296198679311243</v>
+        <v>0.7136241170615633</v>
       </c>
     </row>
     <row r="84">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5242,13 +5242,13 @@
         <v>128</v>
       </c>
       <c r="O84" t="n">
-        <v>0.7770360480640854</v>
+        <v>0.7823033707865169</v>
       </c>
       <c r="P84" t="n">
-        <v>0.909375</v>
+        <v>0.8703125</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.7277039057528811</v>
+        <v>0.7313037733147048</v>
       </c>
     </row>
     <row r="85">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5299,13 +5299,13 @@
         <v>128</v>
       </c>
       <c r="O85" t="n">
-        <v>0.7735602094240838</v>
+        <v>0.7946175637393768</v>
       </c>
       <c r="P85" t="n">
-        <v>0.9234375</v>
+        <v>0.8765625</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.7260252579844375</v>
+        <v>0.7284007862682256</v>
       </c>
     </row>
     <row r="86">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5356,13 +5356,13 @@
         <v>128</v>
       </c>
       <c r="O86" t="n">
-        <v>0.7924263674614306</v>
+        <v>0.7950819672131147</v>
       </c>
       <c r="P86" t="n">
-        <v>0.8828125</v>
+        <v>0.909375</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.7254139174163611</v>
+        <v>0.7150613584669467</v>
       </c>
     </row>
     <row r="87">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5413,13 +5413,13 @@
         <v>128</v>
       </c>
       <c r="O87" t="n">
-        <v>0.8061797752808989</v>
+        <v>0.8034934497816594</v>
       </c>
       <c r="P87" t="n">
-        <v>0.896875</v>
+        <v>0.8625</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.7141577455792492</v>
+        <v>0.7252200348344864</v>
       </c>
     </row>
     <row r="88">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5470,13 +5470,13 @@
         <v>128</v>
       </c>
       <c r="O88" t="n">
-        <v>0.8094512195121951</v>
+        <v>0.796</v>
       </c>
       <c r="P88" t="n">
-        <v>0.8296875</v>
+        <v>0.9328125</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.7324200350774359</v>
+        <v>0.7091604945886189</v>
       </c>
     </row>
     <row r="89">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5527,13 +5527,13 @@
         <v>128</v>
       </c>
       <c r="O89" t="n">
-        <v>0.8169642857142857</v>
+        <v>0.7886944818304172</v>
       </c>
       <c r="P89" t="n">
-        <v>0.8578125</v>
+        <v>0.915625</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.7208602927389188</v>
+        <v>0.718920290200419</v>
       </c>
     </row>
     <row r="90">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5584,13 +5584,13 @@
         <v>128</v>
       </c>
       <c r="O90" t="n">
-        <v>0.8016877637130801</v>
+        <v>0.8005657708628006</v>
       </c>
       <c r="P90" t="n">
-        <v>0.890625</v>
+        <v>0.884375</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.7206869432829085</v>
+        <v>0.7233454293794761</v>
       </c>
     </row>
     <row r="91">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5641,13 +5641,13 @@
         <v>128</v>
       </c>
       <c r="O91" t="n">
-        <v>0.8022130013831259</v>
+        <v>0.8052325581395349</v>
       </c>
       <c r="P91" t="n">
-        <v>0.90625</v>
+        <v>0.865625</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.7171177645614244</v>
+        <v>0.7274889206994173</v>
       </c>
     </row>
     <row r="92">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5698,13 +5698,13 @@
         <v>128</v>
       </c>
       <c r="O92" t="n">
-        <v>0.8</v>
+        <v>0.7924812030075188</v>
       </c>
       <c r="P92" t="n">
-        <v>0.9</v>
+        <v>0.8234375</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.7156778199100926</v>
+        <v>0.7419761864308319</v>
       </c>
     </row>
     <row r="93">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5755,13 +5755,13 @@
         <v>128</v>
       </c>
       <c r="O93" t="n">
-        <v>0.8043165467625899</v>
+        <v>0.8040123456790124</v>
       </c>
       <c r="P93" t="n">
-        <v>0.8734375</v>
+        <v>0.8140625</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.7207988740631898</v>
+        <v>0.7444736582661107</v>
       </c>
     </row>
     <row r="94">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5812,13 +5812,13 @@
         <v>128</v>
       </c>
       <c r="O94" t="n">
-        <v>0.8</v>
+        <v>0.815592203898051</v>
       </c>
       <c r="P94" t="n">
-        <v>0.89375</v>
+        <v>0.85</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.7221702806550453</v>
+        <v>0.7238470971314616</v>
       </c>
     </row>
     <row r="95">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5869,13 +5869,13 @@
         <v>128</v>
       </c>
       <c r="O95" t="n">
-        <v>0.7946927374301676</v>
+        <v>0.7954866008462623</v>
       </c>
       <c r="P95" t="n">
-        <v>0.8890625</v>
+        <v>0.88125</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.7201077905715321</v>
+        <v>0.7254723216074085</v>
       </c>
     </row>
     <row r="96">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5926,13 +5926,13 @@
         <v>128</v>
       </c>
       <c r="O96" t="n">
-        <v>0.7922636103151862</v>
+        <v>0.7848605577689243</v>
       </c>
       <c r="P96" t="n">
-        <v>0.8640625</v>
+        <v>0.9234375</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.7288659463101382</v>
+        <v>0.7187683075261871</v>
       </c>
     </row>
     <row r="97">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -5983,13 +5983,13 @@
         <v>128</v>
       </c>
       <c r="O97" t="n">
-        <v>0.7927170868347339</v>
+        <v>0.7899045020463847</v>
       </c>
       <c r="P97" t="n">
-        <v>0.884375</v>
+        <v>0.9046875</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.7268295843676744</v>
+        <v>0.7190556447969843</v>
       </c>
     </row>
     <row r="98">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6040,13 +6040,13 @@
         <v>128</v>
       </c>
       <c r="O98" t="n">
-        <v>0.8011049723756906</v>
+        <v>0.7881578947368421</v>
       </c>
       <c r="P98" t="n">
-        <v>0.90625</v>
+        <v>0.9359375</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.7152321958973397</v>
+        <v>0.7129121136881108</v>
       </c>
     </row>
     <row r="99">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6097,13 +6097,13 @@
         <v>128</v>
       </c>
       <c r="O99" t="n">
-        <v>0.8213114754098361</v>
+        <v>0.7893258426966292</v>
       </c>
       <c r="P99" t="n">
-        <v>0.7828125</v>
+        <v>0.878125</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.745109840755549</v>
+        <v>0.7265569818505334</v>
       </c>
     </row>
     <row r="100">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6154,13 +6154,13 @@
         <v>128</v>
       </c>
       <c r="O100" t="n">
-        <v>0.79750346740638</v>
+        <v>0.8027972027972028</v>
       </c>
       <c r="P100" t="n">
-        <v>0.8984375</v>
+        <v>0.896875</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.7191224564793962</v>
+        <v>0.7164271490066839</v>
       </c>
     </row>
     <row r="101">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6211,13 +6211,13 @@
         <v>128</v>
       </c>
       <c r="O101" t="n">
-        <v>0.7997097242380261</v>
+        <v>0.8091042584434655</v>
       </c>
       <c r="P101" t="n">
         <v>0.8609375</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.7286811295677634</v>
+        <v>0.7229590256829067</v>
       </c>
     </row>
   </sheetData>
